--- a/참조자료/memo-테이블명세(2019-07-18).xlsx
+++ b/참조자료/memo-테이블명세(2019-07-18).xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\bizwork\spwork\참조파일\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8475"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 명세서" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="68">
   <si>
     <t>테이블 이름</t>
   </si>
@@ -182,10 +177,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>tbl_memo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>일련번호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -226,63 +217,62 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>mo_seq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mo_date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mo_auth</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mo_memo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mo_subject</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>PRIMARY KEY</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_SEQ</t>
+  </si>
+  <si>
+    <t>T_DATE</t>
+  </si>
+  <si>
+    <t>T_AUTH</t>
+  </si>
+  <si>
+    <t>T_EMAIL</t>
+  </si>
+  <si>
+    <t>T_SUBJECT</t>
+  </si>
+  <si>
+    <t>T_MEMO</t>
   </si>
   <si>
     <t>NUMBER</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(10)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(125)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(1000)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>PRIMARY KEY</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성시각</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>mo_time</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(10 BYTE)</t>
+  </si>
+  <si>
+    <t>NVARCHAR2(50 CHAR)</t>
+  </si>
+  <si>
+    <t>NVARCHAR2(125 CHAR)</t>
+  </si>
+  <si>
+    <t>NVARCHAR2(1000 CHAR)</t>
+  </si>
+  <si>
+    <t>이메일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_VIEWCUT</t>
+  </si>
+  <si>
+    <t>조회수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_table</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="돋움"/>
@@ -665,7 +655,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -700,7 +690,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -877,28 +867,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="1.33203125" style="4" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.44140625" style="4" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="4" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8.77734375" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.33203125" style="4" bestFit="1" customWidth="1"/>
@@ -1536,7 +1526,7 @@
     <col min="16139" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1571,7 +1561,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
@@ -1598,7 +1588,7 @@
       <c r="K2" s="7"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="9" t="s">
         <v>15</v>
       </c>
@@ -1623,7 +1613,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="12"/>
     </row>
-    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="13"/>
       <c r="C4" s="14" t="s">
         <v>24</v>
@@ -1644,7 +1634,7 @@
       <c r="K4" s="15"/>
       <c r="L4" s="16"/>
     </row>
-    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="13"/>
       <c r="C5" s="14" t="s">
         <v>25</v>
@@ -1667,7 +1657,7 @@
       <c r="K5" s="15"/>
       <c r="L5" s="16"/>
     </row>
-    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="13"/>
       <c r="C6" s="14" t="s">
         <v>26</v>
@@ -1688,7 +1678,7 @@
       <c r="K6" s="15"/>
       <c r="L6" s="16"/>
     </row>
-    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="13"/>
       <c r="C7" s="14" t="s">
         <v>27</v>
@@ -1709,7 +1699,7 @@
       <c r="K7" s="15"/>
       <c r="L7" s="16"/>
     </row>
-    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B8" s="17"/>
       <c r="C8" s="18"/>
       <c r="D8" s="18"/>
@@ -1722,8 +1712,8 @@
       <c r="K8" s="19"/>
       <c r="L8" s="20"/>
     </row>
-    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1"/>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B11" s="1" t="s">
         <v>0</v>
       </c>
@@ -1758,24 +1748,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="5" t="s">
         <v>41</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>53</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7" t="s">
         <v>11</v>
@@ -1785,21 +1775,21 @@
       <c r="K12" s="7"/>
       <c r="L12" s="8"/>
     </row>
-    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="9" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="11"/>
       <c r="H13" s="11" t="s">
@@ -1810,19 +1800,19 @@
       <c r="K13" s="11"/>
       <c r="L13" s="12"/>
     </row>
-    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="9"/>
-      <c r="C14" s="10" t="s">
-        <v>64</v>
+      <c r="C14" s="14" t="s">
+        <v>44</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
@@ -1833,40 +1823,42 @@
       <c r="K14" s="15"/>
       <c r="L14" s="16"/>
     </row>
-    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="9"/>
       <c r="C15" s="14" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="D15" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="H15" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15"/>
       <c r="K15" s="15"/>
       <c r="L15" s="16"/>
     </row>
-    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="9"/>
       <c r="C16" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D16" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>57</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="15"/>
@@ -1875,19 +1867,19 @@
       <c r="K16" s="15"/>
       <c r="L16" s="16"/>
     </row>
-    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B17" s="9"/>
       <c r="C17" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G17" s="15"/>
       <c r="H17" s="15"/>
@@ -1896,12 +1888,20 @@
       <c r="K17" s="15"/>
       <c r="L17" s="16"/>
     </row>
-    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="B18" s="17"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
+      <c r="C18" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>67</v>
+      </c>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
